--- a/Models/NHES/Resources/Data/RAVEN/Copy of dispatch_print_HTGR_ERC_24h.xlsx
+++ b/Models/NHES/Resources/Data/RAVEN/Copy of dispatch_print_HTGR_ERC_24h.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inl-my.sharepoint.com/personal/aidan_rigby_inl_gov/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidan\projects\HYBRIDForkNovova\HYBRID\Models\NHES\Resources\Data\RAVEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{85C8B45E-EC31-4407-85FF-F5FCE461B456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E46FFA-FD21-4FD1-A75D-F66B5913A0AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FA7A63-1372-481A-8D66-AF23CA7BFEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dispatch_print_HTGR_ERC_24h" sheetId="1" r:id="rId1"/>
@@ -727,152 +727,152 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>1.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>2.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>3.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5</c:v>
+                  <c:v>4.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5</c:v>
+                  <c:v>5.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5</c:v>
+                  <c:v>6.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5</c:v>
+                  <c:v>7.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5</c:v>
+                  <c:v>8.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.5</c:v>
+                  <c:v>9.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.5</c:v>
+                  <c:v>10.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.5</c:v>
+                  <c:v>11.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.5</c:v>
+                  <c:v>12.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.5</c:v>
+                  <c:v>13.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.5</c:v>
+                  <c:v>14.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.5</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.5</c:v>
+                  <c:v>16.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.5</c:v>
+                  <c:v>17.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.5</c:v>
+                  <c:v>18.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>19.5</c:v>
+                  <c:v>19.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.5</c:v>
+                  <c:v>20.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21.5</c:v>
+                  <c:v>21.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.5</c:v>
+                  <c:v>22.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23.5</c:v>
+                  <c:v>23.833333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>dispatch_print_HTGR_ERC_24h!$D$489:$D$536</c:f>
+              <c:f>dispatch_print_HTGR_ERC_24h!$E$489:$E$536</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1777,16 +1777,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2632364</xdr:colOff>
-      <xdr:row>502</xdr:row>
-      <xdr:rowOff>96982</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>517</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1274618</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2114,35 +2114,35 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B489" activeCellId="1" sqref="D489:D536 B489:B536"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L489" sqref="L489:M536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" customWidth="1"/>
+    <col min="15" max="15" width="43.28515625" customWidth="1"/>
+    <col min="16" max="16" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>0</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>0</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>0</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>0</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>0</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>0</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>0</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>0</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>0</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>0</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>0</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>0</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>0</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>0</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>0</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>0</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>0</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>0</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>0</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>0</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>0</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>0</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>0</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>0</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>0</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>0</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>0</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>0</v>
       </c>
@@ -15038,7 +15038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>0</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>0</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>0</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>0</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>0</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>0</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>0</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>0</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>0</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>0</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>0</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>0</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>0</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>0</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>0</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>0</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>0</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>0</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>0</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>0</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>0</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>0</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>0</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>0</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>0</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>0</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>0</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>0</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>0</v>
       </c>
@@ -17208,7 +17208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>0</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>0</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>0</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>0</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>0</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>0</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>0</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>0</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>0</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>0</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>0</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>0</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>0</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>0</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>0</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>0</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>0</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>0</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>0</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>0</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>0</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>0</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>0</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>0</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>0</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>0</v>
       </c>
@@ -18944,7 +18944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>0</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>0</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>0</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>0</v>
       </c>
@@ -19192,7 +19192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>0</v>
       </c>
@@ -19254,7 +19254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>0</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>0</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>0</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>0</v>
       </c>
@@ -19626,7 +19626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>0</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>0</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>0</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>0</v>
       </c>
@@ -19874,7 +19874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>0</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>0</v>
       </c>
@@ -19998,7 +19998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>0</v>
       </c>
@@ -20060,7 +20060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>0</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>0</v>
       </c>
@@ -20184,7 +20184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>0</v>
       </c>
@@ -20246,7 +20246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>0</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>0</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>0</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>0</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>0</v>
       </c>
@@ -20618,7 +20618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>0</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>0</v>
       </c>
@@ -20742,7 +20742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>0</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>0</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>0</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>0</v>
       </c>
@@ -20990,7 +20990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>0</v>
       </c>
@@ -21052,7 +21052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>0</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>0</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>0</v>
       </c>
@@ -21238,7 +21238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>0</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>0</v>
       </c>
@@ -21362,7 +21362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>0</v>
       </c>
@@ -21424,7 +21424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>0</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>0</v>
       </c>
@@ -21548,7 +21548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -21610,7 +21610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>0</v>
       </c>
@@ -21672,7 +21672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>0</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>0</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>0</v>
       </c>
@@ -21858,7 +21858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>0</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>0</v>
       </c>
@@ -21982,7 +21982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>0</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>0</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>0</v>
       </c>
@@ -22168,7 +22168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>0</v>
       </c>
@@ -22230,7 +22230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>0</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>0</v>
       </c>
@@ -22354,7 +22354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>0</v>
       </c>
@@ -22416,7 +22416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>0</v>
       </c>
@@ -22478,7 +22478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>0</v>
       </c>
@@ -22540,7 +22540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>0</v>
       </c>
@@ -22602,7 +22602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>0</v>
       </c>
@@ -22664,7 +22664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>0</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>0</v>
       </c>
@@ -22788,7 +22788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>0</v>
       </c>
@@ -22850,7 +22850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>0</v>
       </c>
@@ -22912,7 +22912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>0</v>
       </c>
@@ -22974,7 +22974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>0</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>0</v>
       </c>
@@ -23098,7 +23098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0</v>
       </c>
@@ -23160,7 +23160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>0</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>0</v>
       </c>
@@ -23284,7 +23284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>0</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>0</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>0</v>
       </c>
@@ -23470,7 +23470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>0</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>0</v>
       </c>
@@ -23594,7 +23594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>0</v>
       </c>
@@ -23656,7 +23656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>0</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>0</v>
       </c>
@@ -23780,7 +23780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>0</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -23904,7 +23904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>0</v>
       </c>
@@ -23966,7 +23966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>0</v>
       </c>
@@ -24028,7 +24028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>0</v>
       </c>
@@ -24090,7 +24090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>0</v>
       </c>
@@ -24152,7 +24152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>0</v>
       </c>
@@ -24214,7 +24214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>0</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>0</v>
       </c>
@@ -24338,7 +24338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>0</v>
       </c>
@@ -24400,7 +24400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>0</v>
       </c>
@@ -24462,7 +24462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>0</v>
       </c>
@@ -24524,7 +24524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>0</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>0</v>
       </c>
@@ -24648,7 +24648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>0</v>
       </c>
@@ -24710,7 +24710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>0</v>
       </c>
@@ -24772,7 +24772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>0</v>
       </c>
@@ -24834,7 +24834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>0</v>
       </c>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>0</v>
       </c>
@@ -24958,7 +24958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>0</v>
       </c>
@@ -25020,7 +25020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>0</v>
       </c>
@@ -25082,7 +25082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>0</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>0</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>0</v>
       </c>
@@ -25268,7 +25268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>0</v>
       </c>
@@ -25330,7 +25330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0</v>
       </c>
@@ -25392,7 +25392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>0</v>
       </c>
@@ -25454,7 +25454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>0</v>
       </c>
@@ -25516,7 +25516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>0</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>0</v>
       </c>
@@ -25640,7 +25640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>0</v>
       </c>
@@ -25702,7 +25702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>0</v>
       </c>
@@ -25764,7 +25764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>0</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>0</v>
       </c>
@@ -25888,7 +25888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>0</v>
       </c>
@@ -25950,7 +25950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>0</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>0</v>
       </c>
@@ -26074,7 +26074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>0</v>
       </c>
@@ -26136,7 +26136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -26198,7 +26198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>0</v>
       </c>
@@ -26260,7 +26260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>0</v>
       </c>
@@ -26322,7 +26322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>0</v>
       </c>
@@ -26384,7 +26384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>0</v>
       </c>
@@ -26446,7 +26446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>0</v>
       </c>
@@ -26508,7 +26508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>0</v>
       </c>
@@ -26570,7 +26570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>0</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>0</v>
       </c>
@@ -26694,7 +26694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>0</v>
       </c>
@@ -26756,7 +26756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>0</v>
       </c>
@@ -26818,7 +26818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>0</v>
       </c>
@@ -26880,7 +26880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>0</v>
       </c>
@@ -26942,7 +26942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>0</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>0</v>
       </c>
@@ -27066,7 +27066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>0</v>
       </c>
@@ -27128,7 +27128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>0</v>
       </c>
@@ -27190,7 +27190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>0</v>
       </c>
@@ -27252,7 +27252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>0</v>
       </c>
@@ -27314,7 +27314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>0</v>
       </c>
@@ -27376,7 +27376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>0</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>0</v>
       </c>
@@ -27500,7 +27500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>0</v>
       </c>
@@ -27562,7 +27562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>0</v>
       </c>
@@ -27624,7 +27624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>0</v>
       </c>
@@ -27686,7 +27686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>0</v>
       </c>
@@ -27748,7 +27748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>0</v>
       </c>
@@ -27810,7 +27810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>0</v>
       </c>
@@ -27872,7 +27872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>0</v>
       </c>
@@ -27934,7 +27934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>0</v>
       </c>
@@ -27996,7 +27996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>0</v>
       </c>
@@ -28058,7 +28058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>0</v>
       </c>
@@ -28120,7 +28120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>0</v>
       </c>
@@ -28182,7 +28182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>0</v>
       </c>
@@ -28244,7 +28244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>0</v>
       </c>
@@ -28306,7 +28306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>0</v>
       </c>
@@ -28368,7 +28368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>0</v>
       </c>
@@ -28430,7 +28430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -28492,7 +28492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>0</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>0</v>
       </c>
@@ -28616,7 +28616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>0</v>
       </c>
@@ -28678,7 +28678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>0</v>
       </c>
@@ -28740,7 +28740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>0</v>
       </c>
@@ -28802,7 +28802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>0</v>
       </c>
@@ -28864,7 +28864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>0</v>
       </c>
@@ -28926,7 +28926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>0</v>
       </c>
@@ -28988,7 +28988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>0</v>
       </c>
@@ -29050,7 +29050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>0</v>
       </c>
@@ -29112,7 +29112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>0</v>
       </c>
@@ -29174,7 +29174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>0</v>
       </c>
@@ -29236,7 +29236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>0</v>
       </c>
@@ -29298,7 +29298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>0</v>
       </c>
@@ -29360,7 +29360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>0</v>
       </c>
@@ -29422,7 +29422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>0</v>
       </c>
@@ -29484,7 +29484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>0</v>
       </c>
@@ -29546,7 +29546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>0</v>
       </c>
@@ -29608,7 +29608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>0</v>
       </c>
@@ -29670,7 +29670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>0</v>
       </c>
@@ -29732,7 +29732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>0</v>
       </c>
@@ -29794,7 +29794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>0</v>
       </c>
@@ -29856,7 +29856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>0</v>
       </c>
@@ -29918,7 +29918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>0</v>
       </c>
@@ -29980,7 +29980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>0</v>
       </c>
@@ -30042,7 +30042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>0</v>
       </c>
@@ -30104,7 +30104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>0</v>
       </c>
@@ -30166,7 +30166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>0</v>
       </c>
@@ -30228,7 +30228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>0</v>
       </c>
@@ -30290,7 +30290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>0</v>
       </c>
@@ -30352,7 +30352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>0</v>
       </c>
@@ -30414,7 +30414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>0</v>
       </c>
@@ -30476,7 +30476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>0</v>
       </c>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>0</v>
       </c>
@@ -30600,7 +30600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>0</v>
       </c>
@@ -30662,7 +30662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>0</v>
       </c>
@@ -30724,7 +30724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>0</v>
       </c>
@@ -30848,7 +30848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>0</v>
       </c>
@@ -30910,7 +30910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>0</v>
       </c>
@@ -30972,7 +30972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>0</v>
       </c>
@@ -31034,7 +31034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>0</v>
       </c>
@@ -31096,7 +31096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>0</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>0</v>
       </c>
@@ -31220,7 +31220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>0</v>
       </c>
@@ -31282,7 +31282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>0</v>
       </c>
@@ -31344,7 +31344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>0</v>
       </c>
@@ -31406,7 +31406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>0</v>
       </c>
@@ -31468,7 +31468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>0</v>
       </c>
@@ -31530,7 +31530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>0</v>
       </c>
@@ -31592,7 +31592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>0</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>0</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>0</v>
       </c>
@@ -31778,7 +31778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>0</v>
       </c>
@@ -31840,7 +31840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>0</v>
       </c>
@@ -31902,7 +31902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>0</v>
       </c>
@@ -31964,580 +31964,1299 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B489">
         <v>0</v>
       </c>
       <c r="C489">
+        <f>(B489*3600)+605000</f>
+        <v>605000</v>
+      </c>
+      <c r="D489">
         <v>-42.756000424699998</v>
       </c>
-      <c r="D489">
-        <f>-C489</f>
+      <c r="E489">
+        <f>-D489</f>
         <v>42.756000424699998</v>
       </c>
-    </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F489">
+        <f>E489*(10^6)</f>
+        <v>42756000.424699999</v>
+      </c>
+      <c r="L489">
+        <v>605000</v>
+      </c>
+      <c r="M489">
+        <v>42756000.424699999</v>
+      </c>
+    </row>
+    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B490">
-        <v>0.5</v>
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C490">
+        <f t="shared" ref="C490:C536" si="0">(B490*3600)+605000</f>
+        <v>608000</v>
+      </c>
+      <c r="D490">
         <v>-42.756000424699998</v>
       </c>
-      <c r="D490">
-        <f t="shared" ref="D490:D536" si="0">-C490</f>
+      <c r="E490">
+        <f t="shared" ref="E490:E536" si="1">-D490</f>
         <v>42.756000424699998</v>
       </c>
-    </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F490">
+        <f t="shared" ref="F490:F536" si="2">E490*(10^6)</f>
+        <v>42756000.424699999</v>
+      </c>
+      <c r="L490">
+        <v>608000</v>
+      </c>
+      <c r="M490">
+        <v>42756000.424699999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B491">
+        <f>B489+1</f>
         <v>1</v>
       </c>
       <c r="C491">
+        <f t="shared" si="0"/>
+        <v>608600</v>
+      </c>
+      <c r="D491">
         <v>-42.756000424</v>
       </c>
-      <c r="D491">
+      <c r="E491">
+        <f t="shared" si="1"/>
+        <v>42.756000424</v>
+      </c>
+      <c r="F491">
+        <f t="shared" si="2"/>
+        <v>42756000.424000002</v>
+      </c>
+      <c r="L491">
+        <v>608600</v>
+      </c>
+      <c r="M491">
+        <v>42756000.424000002</v>
+      </c>
+    </row>
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B492">
+        <f t="shared" ref="B492:B536" si="3">B490+1</f>
+        <v>1.8333333333333335</v>
+      </c>
+      <c r="C492">
         <f t="shared" si="0"/>
+        <v>611600</v>
+      </c>
+      <c r="D492">
+        <v>-42.756000424</v>
+      </c>
+      <c r="E492">
+        <f t="shared" si="1"/>
         <v>42.756000424</v>
       </c>
-    </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B492">
-        <v>1.5</v>
-      </c>
-      <c r="C492">
+      <c r="F492">
+        <f t="shared" si="2"/>
+        <v>42756000.424000002</v>
+      </c>
+      <c r="L492">
+        <v>611600</v>
+      </c>
+      <c r="M492">
+        <v>42756000.424000002</v>
+      </c>
+    </row>
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B493">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C493">
+        <f t="shared" si="0"/>
+        <v>612200</v>
+      </c>
+      <c r="D493">
+        <v>-42.756000424200003</v>
+      </c>
+      <c r="E493">
+        <f t="shared" si="1"/>
+        <v>42.756000424200003</v>
+      </c>
+      <c r="F493">
+        <f t="shared" si="2"/>
+        <v>42756000.424200006</v>
+      </c>
+      <c r="L493">
+        <v>612200</v>
+      </c>
+      <c r="M493">
+        <v>42756000.424200006</v>
+      </c>
+    </row>
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B494">
+        <f t="shared" si="3"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="C494">
+        <f t="shared" si="0"/>
+        <v>615200</v>
+      </c>
+      <c r="D494">
+        <v>-42.756000424200003</v>
+      </c>
+      <c r="E494">
+        <f t="shared" si="1"/>
+        <v>42.756000424200003</v>
+      </c>
+      <c r="F494">
+        <f t="shared" si="2"/>
+        <v>42756000.424200006</v>
+      </c>
+      <c r="L494">
+        <v>615200</v>
+      </c>
+      <c r="M494">
+        <v>42756000.424200006</v>
+      </c>
+    </row>
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B495">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C495">
+        <f t="shared" si="0"/>
+        <v>615800</v>
+      </c>
+      <c r="D495">
+        <v>-125.38398125400001</v>
+      </c>
+      <c r="E495">
+        <f t="shared" si="1"/>
+        <v>125.38398125400001</v>
+      </c>
+      <c r="F495">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L495">
+        <v>615800</v>
+      </c>
+      <c r="M495">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B496">
+        <f t="shared" si="3"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="C496">
+        <f t="shared" si="0"/>
+        <v>618800</v>
+      </c>
+      <c r="D496">
+        <v>-125.38398125400001</v>
+      </c>
+      <c r="E496">
+        <f t="shared" si="1"/>
+        <v>125.38398125400001</v>
+      </c>
+      <c r="F496">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L496">
+        <v>618800</v>
+      </c>
+      <c r="M496">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="497" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B497">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C497">
+        <f t="shared" si="0"/>
+        <v>619400</v>
+      </c>
+      <c r="D497">
         <v>-42.756000424</v>
       </c>
-      <c r="D492">
+      <c r="E497">
+        <f t="shared" si="1"/>
+        <v>42.756000424</v>
+      </c>
+      <c r="F497">
+        <f t="shared" si="2"/>
+        <v>42756000.424000002</v>
+      </c>
+      <c r="L497">
+        <v>619400</v>
+      </c>
+      <c r="M497">
+        <v>42756000.424000002</v>
+      </c>
+    </row>
+    <row r="498" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B498">
+        <f t="shared" si="3"/>
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="C498">
         <f t="shared" si="0"/>
+        <v>622400</v>
+      </c>
+      <c r="D498">
+        <v>-42.756000424</v>
+      </c>
+      <c r="E498">
+        <f t="shared" si="1"/>
         <v>42.756000424</v>
       </c>
-    </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B493">
-        <v>2</v>
-      </c>
-      <c r="C493">
-        <v>-42.756000424200003</v>
-      </c>
-      <c r="D493">
+      <c r="F498">
+        <f t="shared" si="2"/>
+        <v>42756000.424000002</v>
+      </c>
+      <c r="L498">
+        <v>622400</v>
+      </c>
+      <c r="M498">
+        <v>42756000.424000002</v>
+      </c>
+    </row>
+    <row r="499" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B499">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C499">
         <f t="shared" si="0"/>
-        <v>42.756000424200003</v>
-      </c>
-    </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B494">
-        <v>2.5</v>
-      </c>
-      <c r="C494">
-        <v>-42.756000424200003</v>
-      </c>
-      <c r="D494">
+        <v>623000</v>
+      </c>
+      <c r="D499">
+        <v>-125.38398125400001</v>
+      </c>
+      <c r="E499">
+        <f t="shared" si="1"/>
+        <v>125.38398125400001</v>
+      </c>
+      <c r="F499">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L499">
+        <v>623000</v>
+      </c>
+      <c r="M499">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="500" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B500">
+        <f t="shared" si="3"/>
+        <v>5.8333333333333339</v>
+      </c>
+      <c r="C500">
         <f t="shared" si="0"/>
-        <v>42.756000424200003</v>
-      </c>
-    </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B495">
-        <v>3</v>
-      </c>
-      <c r="C495">
+        <v>626000</v>
+      </c>
+      <c r="D500">
         <v>-125.38398125400001</v>
       </c>
-      <c r="D495">
+      <c r="E500">
+        <f t="shared" si="1"/>
+        <v>125.38398125400001</v>
+      </c>
+      <c r="F500">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L500">
+        <v>626000</v>
+      </c>
+      <c r="M500">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="501" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B501">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C501">
         <f t="shared" si="0"/>
+        <v>626600</v>
+      </c>
+      <c r="D501">
+        <v>-125.38398125400001</v>
+      </c>
+      <c r="E501">
+        <f t="shared" si="1"/>
         <v>125.38398125400001</v>
       </c>
-    </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B496">
-        <v>3.5</v>
-      </c>
-      <c r="C496">
+      <c r="F501">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L501">
+        <v>626600</v>
+      </c>
+      <c r="M501">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="502" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B502">
+        <f t="shared" si="3"/>
+        <v>6.8333333333333339</v>
+      </c>
+      <c r="C502">
+        <f t="shared" si="0"/>
+        <v>629600</v>
+      </c>
+      <c r="D502">
         <v>-125.38398125400001</v>
       </c>
-      <c r="D496">
+      <c r="E502">
+        <f t="shared" si="1"/>
+        <v>125.38398125400001</v>
+      </c>
+      <c r="F502">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L502">
+        <v>629600</v>
+      </c>
+      <c r="M502">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="503" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B503">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C503">
         <f t="shared" si="0"/>
+        <v>630200</v>
+      </c>
+      <c r="D503">
+        <v>-125.38398125400001</v>
+      </c>
+      <c r="E503">
+        <f t="shared" si="1"/>
         <v>125.38398125400001</v>
       </c>
-    </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B497">
-        <v>4</v>
-      </c>
-      <c r="C497">
+      <c r="F503">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L503">
+        <v>630200</v>
+      </c>
+      <c r="M503">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="504" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B504">
+        <f t="shared" si="3"/>
+        <v>7.8333333333333339</v>
+      </c>
+      <c r="C504">
+        <f t="shared" si="0"/>
+        <v>633200</v>
+      </c>
+      <c r="D504">
+        <v>-125.38398125400001</v>
+      </c>
+      <c r="E504">
+        <f t="shared" si="1"/>
+        <v>125.38398125400001</v>
+      </c>
+      <c r="F504">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L504">
+        <v>633200</v>
+      </c>
+      <c r="M504">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="505" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B505">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C505">
+        <f t="shared" si="0"/>
+        <v>633800</v>
+      </c>
+      <c r="D505">
+        <v>-42.756000427099998</v>
+      </c>
+      <c r="E505">
+        <f t="shared" si="1"/>
+        <v>42.756000427099998</v>
+      </c>
+      <c r="F505">
+        <f t="shared" si="2"/>
+        <v>42756000.427099995</v>
+      </c>
+      <c r="L505">
+        <v>633800</v>
+      </c>
+      <c r="M505">
+        <v>42756000.427099995</v>
+      </c>
+    </row>
+    <row r="506" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B506">
+        <f t="shared" si="3"/>
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="C506">
+        <f t="shared" si="0"/>
+        <v>636800</v>
+      </c>
+      <c r="D506">
+        <v>-42.756000427099998</v>
+      </c>
+      <c r="E506">
+        <f t="shared" si="1"/>
+        <v>42.756000427099998</v>
+      </c>
+      <c r="F506">
+        <f t="shared" si="2"/>
+        <v>42756000.427099995</v>
+      </c>
+      <c r="L506">
+        <v>636800</v>
+      </c>
+      <c r="M506">
+        <v>42756000.427099995</v>
+      </c>
+    </row>
+    <row r="507" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B507">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C507">
+        <f t="shared" si="0"/>
+        <v>637400</v>
+      </c>
+      <c r="D507">
+        <v>-42.756000426200004</v>
+      </c>
+      <c r="E507">
+        <f t="shared" si="1"/>
+        <v>42.756000426200004</v>
+      </c>
+      <c r="F507">
+        <f t="shared" si="2"/>
+        <v>42756000.426200002</v>
+      </c>
+      <c r="L507">
+        <v>637400</v>
+      </c>
+      <c r="M507">
+        <v>42756000.426200002</v>
+      </c>
+    </row>
+    <row r="508" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B508">
+        <f t="shared" si="3"/>
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="C508">
+        <f t="shared" si="0"/>
+        <v>640400</v>
+      </c>
+      <c r="D508">
+        <v>-42.756000426200004</v>
+      </c>
+      <c r="E508">
+        <f t="shared" si="1"/>
+        <v>42.756000426200004</v>
+      </c>
+      <c r="F508">
+        <f t="shared" si="2"/>
+        <v>42756000.426200002</v>
+      </c>
+      <c r="L508">
+        <v>640400</v>
+      </c>
+      <c r="M508">
+        <v>42756000.426200002</v>
+      </c>
+    </row>
+    <row r="509" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B509">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C509">
+        <f t="shared" si="0"/>
+        <v>641000</v>
+      </c>
+      <c r="D509">
+        <v>-125.38398125400001</v>
+      </c>
+      <c r="E509">
+        <f t="shared" si="1"/>
+        <v>125.38398125400001</v>
+      </c>
+      <c r="F509">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L509">
+        <v>641000</v>
+      </c>
+      <c r="M509">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="510" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B510">
+        <f t="shared" si="3"/>
+        <v>10.833333333333334</v>
+      </c>
+      <c r="C510">
+        <f t="shared" si="0"/>
+        <v>644000</v>
+      </c>
+      <c r="D510">
+        <v>-125.38398125400001</v>
+      </c>
+      <c r="E510">
+        <f t="shared" si="1"/>
+        <v>125.38398125400001</v>
+      </c>
+      <c r="F510">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L510">
+        <v>644000</v>
+      </c>
+      <c r="M510">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="511" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B511">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C511">
+        <f t="shared" si="0"/>
+        <v>644600</v>
+      </c>
+      <c r="D511">
         <v>-42.756000424</v>
       </c>
-      <c r="D497">
+      <c r="E511">
+        <f t="shared" si="1"/>
+        <v>42.756000424</v>
+      </c>
+      <c r="F511">
+        <f t="shared" si="2"/>
+        <v>42756000.424000002</v>
+      </c>
+      <c r="L511">
+        <v>644600</v>
+      </c>
+      <c r="M511">
+        <v>42756000.424000002</v>
+      </c>
+    </row>
+    <row r="512" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B512">
+        <f t="shared" si="3"/>
+        <v>11.833333333333334</v>
+      </c>
+      <c r="C512">
         <f t="shared" si="0"/>
+        <v>647600</v>
+      </c>
+      <c r="D512">
+        <v>-42.756000424</v>
+      </c>
+      <c r="E512">
+        <f t="shared" si="1"/>
         <v>42.756000424</v>
       </c>
-    </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B498">
-        <v>4.5</v>
-      </c>
-      <c r="C498">
+      <c r="F512">
+        <f t="shared" si="2"/>
+        <v>42756000.424000002</v>
+      </c>
+      <c r="L512">
+        <v>647600</v>
+      </c>
+      <c r="M512">
+        <v>42756000.424000002</v>
+      </c>
+    </row>
+    <row r="513" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B513">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C513">
+        <f t="shared" si="0"/>
+        <v>648200</v>
+      </c>
+      <c r="D513">
         <v>-42.756000424</v>
       </c>
-      <c r="D498">
+      <c r="E513">
+        <f t="shared" si="1"/>
+        <v>42.756000424</v>
+      </c>
+      <c r="F513">
+        <f t="shared" si="2"/>
+        <v>42756000.424000002</v>
+      </c>
+      <c r="L513">
+        <v>648200</v>
+      </c>
+      <c r="M513">
+        <v>42756000.424000002</v>
+      </c>
+    </row>
+    <row r="514" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B514">
+        <f t="shared" si="3"/>
+        <v>12.833333333333334</v>
+      </c>
+      <c r="C514">
         <f t="shared" si="0"/>
+        <v>651200</v>
+      </c>
+      <c r="D514">
+        <v>-42.756000424</v>
+      </c>
+      <c r="E514">
+        <f t="shared" si="1"/>
         <v>42.756000424</v>
       </c>
-    </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B499">
-        <v>5</v>
-      </c>
-      <c r="C499">
+      <c r="F514">
+        <f t="shared" si="2"/>
+        <v>42756000.424000002</v>
+      </c>
+      <c r="L514">
+        <v>651200</v>
+      </c>
+      <c r="M514">
+        <v>42756000.424000002</v>
+      </c>
+    </row>
+    <row r="515" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B515">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C515">
+        <f t="shared" si="0"/>
+        <v>651800</v>
+      </c>
+      <c r="D515">
         <v>-125.38398125400001</v>
       </c>
-      <c r="D499">
+      <c r="E515">
+        <f t="shared" si="1"/>
+        <v>125.38398125400001</v>
+      </c>
+      <c r="F515">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L515">
+        <v>651800</v>
+      </c>
+      <c r="M515">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="516" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B516">
+        <f t="shared" si="3"/>
+        <v>13.833333333333334</v>
+      </c>
+      <c r="C516">
         <f t="shared" si="0"/>
+        <v>654800</v>
+      </c>
+      <c r="D516">
+        <v>-125.38398125400001</v>
+      </c>
+      <c r="E516">
+        <f t="shared" si="1"/>
         <v>125.38398125400001</v>
       </c>
-    </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B500">
-        <v>5.5</v>
-      </c>
-      <c r="C500">
+      <c r="F516">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L516">
+        <v>654800</v>
+      </c>
+      <c r="M516">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="517" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B517">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="C517">
+        <f t="shared" si="0"/>
+        <v>655400</v>
+      </c>
+      <c r="D517">
+        <v>-42.7560004248</v>
+      </c>
+      <c r="E517">
+        <f t="shared" si="1"/>
+        <v>42.7560004248</v>
+      </c>
+      <c r="F517">
+        <f t="shared" si="2"/>
+        <v>42756000.424800001</v>
+      </c>
+      <c r="L517">
+        <v>655400</v>
+      </c>
+      <c r="M517">
+        <v>42756000.424800001</v>
+      </c>
+    </row>
+    <row r="518" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B518">
+        <f t="shared" si="3"/>
+        <v>14.833333333333334</v>
+      </c>
+      <c r="C518">
+        <f t="shared" si="0"/>
+        <v>658400</v>
+      </c>
+      <c r="D518">
+        <v>-42.7560004248</v>
+      </c>
+      <c r="E518">
+        <f t="shared" si="1"/>
+        <v>42.7560004248</v>
+      </c>
+      <c r="F518">
+        <f t="shared" si="2"/>
+        <v>42756000.424800001</v>
+      </c>
+      <c r="L518">
+        <v>658400</v>
+      </c>
+      <c r="M518">
+        <v>42756000.424800001</v>
+      </c>
+    </row>
+    <row r="519" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B519">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C519">
+        <f t="shared" si="0"/>
+        <v>659000</v>
+      </c>
+      <c r="D519">
         <v>-125.38398125400001</v>
       </c>
-      <c r="D500">
+      <c r="E519">
+        <f t="shared" si="1"/>
+        <v>125.38398125400001</v>
+      </c>
+      <c r="F519">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L519">
+        <v>659000</v>
+      </c>
+      <c r="M519">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="520" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B520">
+        <f t="shared" si="3"/>
+        <v>15.833333333333334</v>
+      </c>
+      <c r="C520">
         <f t="shared" si="0"/>
+        <v>662000</v>
+      </c>
+      <c r="D520">
+        <v>-125.38398125400001</v>
+      </c>
+      <c r="E520">
+        <f t="shared" si="1"/>
         <v>125.38398125400001</v>
       </c>
-    </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B501">
-        <v>6</v>
-      </c>
-      <c r="C501">
+      <c r="F520">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L520">
+        <v>662000</v>
+      </c>
+      <c r="M520">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="521" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B521">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="C521">
+        <f t="shared" si="0"/>
+        <v>662600</v>
+      </c>
+      <c r="D521">
+        <v>-85.260000852000005</v>
+      </c>
+      <c r="E521">
+        <f t="shared" si="1"/>
+        <v>85.260000852000005</v>
+      </c>
+      <c r="F521">
+        <f t="shared" si="2"/>
+        <v>85260000.851999998</v>
+      </c>
+      <c r="L521">
+        <v>662600</v>
+      </c>
+      <c r="M521">
+        <v>85260000.851999998</v>
+      </c>
+    </row>
+    <row r="522" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B522">
+        <f t="shared" si="3"/>
+        <v>16.833333333333336</v>
+      </c>
+      <c r="C522">
+        <f t="shared" si="0"/>
+        <v>665600</v>
+      </c>
+      <c r="D522">
+        <v>-85.260000852000005</v>
+      </c>
+      <c r="E522">
+        <f t="shared" si="1"/>
+        <v>85.260000852000005</v>
+      </c>
+      <c r="F522">
+        <f t="shared" si="2"/>
+        <v>85260000.851999998</v>
+      </c>
+      <c r="L522">
+        <v>665600</v>
+      </c>
+      <c r="M522">
+        <v>85260000.851999998</v>
+      </c>
+    </row>
+    <row r="523" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B523">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="C523">
+        <f t="shared" si="0"/>
+        <v>666200</v>
+      </c>
+      <c r="D523">
+        <v>-125.383981248</v>
+      </c>
+      <c r="E523">
+        <f t="shared" si="1"/>
+        <v>125.383981248</v>
+      </c>
+      <c r="F523">
+        <f t="shared" si="2"/>
+        <v>125383981.248</v>
+      </c>
+      <c r="L523">
+        <v>666200</v>
+      </c>
+      <c r="M523">
+        <v>125383981.248</v>
+      </c>
+    </row>
+    <row r="524" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B524">
+        <f t="shared" si="3"/>
+        <v>17.833333333333336</v>
+      </c>
+      <c r="C524">
+        <f t="shared" si="0"/>
+        <v>669200</v>
+      </c>
+      <c r="D524">
+        <v>-125.383981248</v>
+      </c>
+      <c r="E524">
+        <f t="shared" si="1"/>
+        <v>125.383981248</v>
+      </c>
+      <c r="F524">
+        <f t="shared" si="2"/>
+        <v>125383981.248</v>
+      </c>
+      <c r="L524">
+        <v>669200</v>
+      </c>
+      <c r="M524">
+        <v>125383981.248</v>
+      </c>
+    </row>
+    <row r="525" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B525">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="C525">
+        <f t="shared" si="0"/>
+        <v>669800</v>
+      </c>
+      <c r="D525">
+        <v>-101.909712505</v>
+      </c>
+      <c r="E525">
+        <f t="shared" si="1"/>
+        <v>101.909712505</v>
+      </c>
+      <c r="F525">
+        <f t="shared" si="2"/>
+        <v>101909712.505</v>
+      </c>
+      <c r="L525">
+        <v>669800</v>
+      </c>
+      <c r="M525">
+        <v>101909712.505</v>
+      </c>
+    </row>
+    <row r="526" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B526">
+        <f t="shared" si="3"/>
+        <v>18.833333333333336</v>
+      </c>
+      <c r="C526">
+        <f t="shared" si="0"/>
+        <v>672800</v>
+      </c>
+      <c r="D526">
+        <v>-101.909712505</v>
+      </c>
+      <c r="E526">
+        <f t="shared" si="1"/>
+        <v>101.909712505</v>
+      </c>
+      <c r="F526">
+        <f t="shared" si="2"/>
+        <v>101909712.505</v>
+      </c>
+      <c r="L526">
+        <v>672800</v>
+      </c>
+      <c r="M526">
+        <v>101909712.505</v>
+      </c>
+    </row>
+    <row r="527" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B527">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C527">
+        <f t="shared" si="0"/>
+        <v>673400</v>
+      </c>
+      <c r="D527">
+        <v>-85.260000855900003</v>
+      </c>
+      <c r="E527">
+        <f t="shared" si="1"/>
+        <v>85.260000855900003</v>
+      </c>
+      <c r="F527">
+        <f t="shared" si="2"/>
+        <v>85260000.855900005</v>
+      </c>
+      <c r="L527">
+        <v>673400</v>
+      </c>
+      <c r="M527">
+        <v>85260000.855900005</v>
+      </c>
+    </row>
+    <row r="528" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B528">
+        <f t="shared" si="3"/>
+        <v>19.833333333333336</v>
+      </c>
+      <c r="C528">
+        <f t="shared" si="0"/>
+        <v>676400</v>
+      </c>
+      <c r="D528">
+        <v>-85.260000855900003</v>
+      </c>
+      <c r="E528">
+        <f t="shared" si="1"/>
+        <v>85.260000855900003</v>
+      </c>
+      <c r="F528">
+        <f t="shared" si="2"/>
+        <v>85260000.855900005</v>
+      </c>
+      <c r="L528">
+        <v>676400</v>
+      </c>
+      <c r="M528">
+        <v>85260000.855900005</v>
+      </c>
+    </row>
+    <row r="529" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B529">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C529">
+        <f t="shared" si="0"/>
+        <v>677000</v>
+      </c>
+      <c r="D529">
+        <v>-85.260000852999994</v>
+      </c>
+      <c r="E529">
+        <f t="shared" si="1"/>
+        <v>85.260000852999994</v>
+      </c>
+      <c r="F529">
+        <f t="shared" si="2"/>
+        <v>85260000.853</v>
+      </c>
+      <c r="L529">
+        <v>677000</v>
+      </c>
+      <c r="M529">
+        <v>85260000.853</v>
+      </c>
+    </row>
+    <row r="530" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B530">
+        <f t="shared" si="3"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="C530">
+        <f t="shared" si="0"/>
+        <v>680000</v>
+      </c>
+      <c r="D530">
+        <v>-85.260000852999994</v>
+      </c>
+      <c r="E530">
+        <f t="shared" si="1"/>
+        <v>85.260000852999994</v>
+      </c>
+      <c r="F530">
+        <f t="shared" si="2"/>
+        <v>85260000.853</v>
+      </c>
+      <c r="L530">
+        <v>680000</v>
+      </c>
+      <c r="M530">
+        <v>85260000.853</v>
+      </c>
+    </row>
+    <row r="531" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B531">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C531">
+        <f t="shared" si="0"/>
+        <v>680600</v>
+      </c>
+      <c r="D531">
+        <v>-42.756000424</v>
+      </c>
+      <c r="E531">
+        <f t="shared" si="1"/>
+        <v>42.756000424</v>
+      </c>
+      <c r="F531">
+        <f t="shared" si="2"/>
+        <v>42756000.424000002</v>
+      </c>
+      <c r="L531">
+        <v>680600</v>
+      </c>
+      <c r="M531">
+        <v>42756000.424000002</v>
+      </c>
+    </row>
+    <row r="532" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B532">
+        <f t="shared" si="3"/>
+        <v>21.833333333333336</v>
+      </c>
+      <c r="C532">
+        <f t="shared" si="0"/>
+        <v>683600</v>
+      </c>
+      <c r="D532">
+        <v>-42.756000424</v>
+      </c>
+      <c r="E532">
+        <f t="shared" si="1"/>
+        <v>42.756000424</v>
+      </c>
+      <c r="F532">
+        <f t="shared" si="2"/>
+        <v>42756000.424000002</v>
+      </c>
+      <c r="L532">
+        <v>683600</v>
+      </c>
+      <c r="M532">
+        <v>42756000.424000002</v>
+      </c>
+    </row>
+    <row r="533" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B533">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C533">
+        <f t="shared" si="0"/>
+        <v>684200</v>
+      </c>
+      <c r="D533">
         <v>-125.38398125400001</v>
       </c>
-      <c r="D501">
+      <c r="E533">
+        <f t="shared" si="1"/>
+        <v>125.38398125400001</v>
+      </c>
+      <c r="F533">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L533">
+        <v>684200</v>
+      </c>
+      <c r="M533">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="534" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B534">
+        <f t="shared" si="3"/>
+        <v>22.833333333333336</v>
+      </c>
+      <c r="C534">
         <f t="shared" si="0"/>
+        <v>687200</v>
+      </c>
+      <c r="D534">
+        <v>-125.38398125400001</v>
+      </c>
+      <c r="E534">
+        <f t="shared" si="1"/>
         <v>125.38398125400001</v>
       </c>
-    </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B502">
-        <v>6.5</v>
-      </c>
-      <c r="C502">
-        <v>-125.38398125400001</v>
-      </c>
-      <c r="D502">
+      <c r="F534">
+        <f t="shared" si="2"/>
+        <v>125383981.25400001</v>
+      </c>
+      <c r="L534">
+        <v>687200</v>
+      </c>
+      <c r="M534">
+        <v>125383981.25400001</v>
+      </c>
+    </row>
+    <row r="535" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B535">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="C535">
         <f t="shared" si="0"/>
-        <v>125.38398125400001</v>
-      </c>
-    </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B503">
-        <v>7</v>
-      </c>
-      <c r="C503">
-        <v>-125.38398125400001</v>
-      </c>
-      <c r="D503">
+        <v>687800</v>
+      </c>
+      <c r="D535">
+        <v>-85.260000852299996</v>
+      </c>
+      <c r="E535">
+        <f t="shared" si="1"/>
+        <v>85.260000852299996</v>
+      </c>
+      <c r="F535">
+        <f t="shared" si="2"/>
+        <v>85260000.852299988</v>
+      </c>
+      <c r="L535">
+        <v>687800</v>
+      </c>
+      <c r="M535">
+        <v>85260000.852299988</v>
+      </c>
+    </row>
+    <row r="536" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B536">
+        <f t="shared" si="3"/>
+        <v>23.833333333333336</v>
+      </c>
+      <c r="C536">
         <f t="shared" si="0"/>
-        <v>125.38398125400001</v>
-      </c>
-    </row>
-    <row r="504" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B504">
-        <v>7.5</v>
-      </c>
-      <c r="C504">
-        <v>-125.38398125400001</v>
-      </c>
-      <c r="D504">
-        <f t="shared" si="0"/>
-        <v>125.38398125400001</v>
-      </c>
-    </row>
-    <row r="505" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B505">
-        <v>8</v>
-      </c>
-      <c r="C505">
-        <v>-42.756000427099998</v>
-      </c>
-      <c r="D505">
-        <f t="shared" si="0"/>
-        <v>42.756000427099998</v>
-      </c>
-    </row>
-    <row r="506" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B506">
-        <v>8.5</v>
-      </c>
-      <c r="C506">
-        <v>-42.756000427099998</v>
-      </c>
-      <c r="D506">
-        <f t="shared" si="0"/>
-        <v>42.756000427099998</v>
-      </c>
-    </row>
-    <row r="507" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B507">
-        <v>9</v>
-      </c>
-      <c r="C507">
-        <v>-42.756000426200004</v>
-      </c>
-      <c r="D507">
-        <f t="shared" si="0"/>
-        <v>42.756000426200004</v>
-      </c>
-    </row>
-    <row r="508" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B508">
-        <v>9.5</v>
-      </c>
-      <c r="C508">
-        <v>-42.756000426200004</v>
-      </c>
-      <c r="D508">
-        <f t="shared" si="0"/>
-        <v>42.756000426200004</v>
-      </c>
-    </row>
-    <row r="509" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B509">
-        <v>10</v>
-      </c>
-      <c r="C509">
-        <v>-125.38398125400001</v>
-      </c>
-      <c r="D509">
-        <f t="shared" si="0"/>
-        <v>125.38398125400001</v>
-      </c>
-    </row>
-    <row r="510" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B510">
-        <v>10.5</v>
-      </c>
-      <c r="C510">
-        <v>-125.38398125400001</v>
-      </c>
-      <c r="D510">
-        <f t="shared" si="0"/>
-        <v>125.38398125400001</v>
-      </c>
-    </row>
-    <row r="511" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B511">
-        <v>11</v>
-      </c>
-      <c r="C511">
-        <v>-42.756000424</v>
-      </c>
-      <c r="D511">
-        <f t="shared" si="0"/>
-        <v>42.756000424</v>
-      </c>
-    </row>
-    <row r="512" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B512">
-        <v>11.5</v>
-      </c>
-      <c r="C512">
-        <v>-42.756000424</v>
-      </c>
-      <c r="D512">
-        <f t="shared" si="0"/>
-        <v>42.756000424</v>
-      </c>
-    </row>
-    <row r="513" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B513">
-        <v>12</v>
-      </c>
-      <c r="C513">
-        <v>-42.756000424</v>
-      </c>
-      <c r="D513">
-        <f t="shared" si="0"/>
-        <v>42.756000424</v>
-      </c>
-    </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B514">
-        <v>12.5</v>
-      </c>
-      <c r="C514">
-        <v>-42.756000424</v>
-      </c>
-      <c r="D514">
-        <f t="shared" si="0"/>
-        <v>42.756000424</v>
-      </c>
-    </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B515">
-        <v>13</v>
-      </c>
-      <c r="C515">
-        <v>-125.38398125400001</v>
-      </c>
-      <c r="D515">
-        <f t="shared" si="0"/>
-        <v>125.38398125400001</v>
-      </c>
-    </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B516">
-        <v>13.5</v>
-      </c>
-      <c r="C516">
-        <v>-125.38398125400001</v>
-      </c>
-      <c r="D516">
-        <f t="shared" si="0"/>
-        <v>125.38398125400001</v>
-      </c>
-    </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B517">
-        <v>14</v>
-      </c>
-      <c r="C517">
-        <v>-42.7560004248</v>
-      </c>
-      <c r="D517">
-        <f t="shared" si="0"/>
-        <v>42.7560004248</v>
-      </c>
-    </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B518">
-        <v>14.5</v>
-      </c>
-      <c r="C518">
-        <v>-42.7560004248</v>
-      </c>
-      <c r="D518">
-        <f t="shared" si="0"/>
-        <v>42.7560004248</v>
-      </c>
-    </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B519">
-        <v>15</v>
-      </c>
-      <c r="C519">
-        <v>-125.38398125400001</v>
-      </c>
-      <c r="D519">
-        <f t="shared" si="0"/>
-        <v>125.38398125400001</v>
-      </c>
-    </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B520">
-        <v>15.5</v>
-      </c>
-      <c r="C520">
-        <v>-125.38398125400001</v>
-      </c>
-      <c r="D520">
-        <f t="shared" si="0"/>
-        <v>125.38398125400001</v>
-      </c>
-    </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B521">
-        <v>16</v>
-      </c>
-      <c r="C521">
-        <v>-85.260000852000005</v>
-      </c>
-      <c r="D521">
-        <f t="shared" si="0"/>
-        <v>85.260000852000005</v>
-      </c>
-    </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B522">
-        <v>16.5</v>
-      </c>
-      <c r="C522">
-        <v>-85.260000852000005</v>
-      </c>
-      <c r="D522">
-        <f t="shared" si="0"/>
-        <v>85.260000852000005</v>
-      </c>
-    </row>
-    <row r="523" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B523">
-        <v>17</v>
-      </c>
-      <c r="C523">
-        <v>-125.383981248</v>
-      </c>
-      <c r="D523">
-        <f t="shared" si="0"/>
-        <v>125.383981248</v>
-      </c>
-    </row>
-    <row r="524" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B524">
-        <v>17.5</v>
-      </c>
-      <c r="C524">
-        <v>-125.383981248</v>
-      </c>
-      <c r="D524">
-        <f t="shared" si="0"/>
-        <v>125.383981248</v>
-      </c>
-    </row>
-    <row r="525" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B525">
-        <v>18</v>
-      </c>
-      <c r="C525">
-        <v>-101.909712505</v>
-      </c>
-      <c r="D525">
-        <f t="shared" si="0"/>
-        <v>101.909712505</v>
-      </c>
-    </row>
-    <row r="526" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B526">
-        <v>18.5</v>
-      </c>
-      <c r="C526">
-        <v>-101.909712505</v>
-      </c>
-      <c r="D526">
-        <f t="shared" si="0"/>
-        <v>101.909712505</v>
-      </c>
-    </row>
-    <row r="527" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B527">
-        <v>19</v>
-      </c>
-      <c r="C527">
-        <v>-85.260000855900003</v>
-      </c>
-      <c r="D527">
-        <f t="shared" si="0"/>
-        <v>85.260000855900003</v>
-      </c>
-    </row>
-    <row r="528" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B528">
-        <v>19.5</v>
-      </c>
-      <c r="C528">
-        <v>-85.260000855900003</v>
-      </c>
-      <c r="D528">
-        <f t="shared" si="0"/>
-        <v>85.260000855900003</v>
-      </c>
-    </row>
-    <row r="529" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B529">
-        <v>20</v>
-      </c>
-      <c r="C529">
-        <v>-85.260000852999994</v>
-      </c>
-      <c r="D529">
-        <f t="shared" si="0"/>
-        <v>85.260000852999994</v>
-      </c>
-    </row>
-    <row r="530" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B530">
-        <v>20.5</v>
-      </c>
-      <c r="C530">
-        <v>-85.260000852999994</v>
-      </c>
-      <c r="D530">
-        <f t="shared" si="0"/>
-        <v>85.260000852999994</v>
-      </c>
-    </row>
-    <row r="531" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B531">
-        <v>21</v>
-      </c>
-      <c r="C531">
-        <v>-42.756000424</v>
-      </c>
-      <c r="D531">
-        <f t="shared" si="0"/>
-        <v>42.756000424</v>
-      </c>
-    </row>
-    <row r="532" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B532">
-        <v>21.5</v>
-      </c>
-      <c r="C532">
-        <v>-42.756000424</v>
-      </c>
-      <c r="D532">
-        <f t="shared" si="0"/>
-        <v>42.756000424</v>
-      </c>
-    </row>
-    <row r="533" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B533">
-        <v>22</v>
-      </c>
-      <c r="C533">
-        <v>-125.38398125400001</v>
-      </c>
-      <c r="D533">
-        <f t="shared" si="0"/>
-        <v>125.38398125400001</v>
-      </c>
-    </row>
-    <row r="534" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B534">
-        <v>22.5</v>
-      </c>
-      <c r="C534">
-        <v>-125.38398125400001</v>
-      </c>
-      <c r="D534">
-        <f t="shared" si="0"/>
-        <v>125.38398125400001</v>
-      </c>
-    </row>
-    <row r="535" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B535">
-        <v>23</v>
-      </c>
-      <c r="C535">
+        <v>690800</v>
+      </c>
+      <c r="D536">
         <v>-85.260000852299996</v>
       </c>
-      <c r="D535">
-        <f t="shared" si="0"/>
+      <c r="E536">
+        <f t="shared" si="1"/>
         <v>85.260000852299996</v>
       </c>
-    </row>
-    <row r="536" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B536">
-        <v>23.5</v>
-      </c>
-      <c r="C536">
-        <v>-85.260000852299996</v>
-      </c>
-      <c r="D536">
-        <f t="shared" si="0"/>
-        <v>85.260000852299996</v>
+      <c r="F536">
+        <f t="shared" si="2"/>
+        <v>85260000.852299988</v>
+      </c>
+      <c r="L536">
+        <v>690800</v>
+      </c>
+      <c r="M536">
+        <v>85260000.852299988</v>
       </c>
     </row>
   </sheetData>
